--- a/docentes/Mendoza Velazquez Laura Elena - Estadisticos 2020.xlsx
+++ b/docentes/Mendoza Velazquez Laura Elena - Estadisticos 2020.xlsx
@@ -597,16 +597,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>64.09999999999999</v>
+      </c>
+      <c r="H2">
+        <v>7.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -620,16 +623,19 @@
         <v>40</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="H3">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -643,16 +649,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>83.33</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -711,16 +720,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>92.31</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H2">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -737,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H3">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -763,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="H4">
         <v>8</v>

--- a/docentes/Mendoza Velazquez Laura Elena - Estadisticos 2020.xlsx
+++ b/docentes/Mendoza Velazquez Laura Elena - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Mat</t>
   </si>
@@ -74,6 +74,33 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>PARRA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>MARCIAL</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>VICTORIANO</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>SUEMI</t>
+  </si>
+  <si>
+    <t>MARIAN</t>
+  </si>
+  <si>
+    <t>IVAN DE JESUS</t>
   </si>
 </sst>
 </file>
@@ -791,7 +818,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -824,6 +851,75 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920306</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920184</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Mendoza Velazquez Laura Elena - Estadisticos 2020.xlsx
+++ b/docentes/Mendoza Velazquez Laura Elena - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <t>Mat</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>MAYAHUA</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
     <t>PARRA</t>
   </si>
   <si>
@@ -85,6 +91,12 @@
     <t>MARCIAL</t>
   </si>
   <si>
+    <t>XOCHIQUISQUI</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>FLORES</t>
   </si>
   <si>
@@ -92,6 +104,12 @@
   </si>
   <si>
     <t>MORALES</t>
+  </si>
+  <si>
+    <t>DAMARIS</t>
+  </si>
+  <si>
+    <t>KAREN</t>
   </si>
   <si>
     <t>SUEMI</t>
@@ -818,7 +836,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -853,22 +871,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920306</v>
+        <v>20330051920137</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -876,22 +894,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920184</v>
+        <v>19330051920130</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -899,25 +917,71 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920136</v>
+        <v>20330051920306</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G4">
-        <v>2</v>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
